--- a/01_analyses_states/Telangana/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Telangana/results/SoIB_summaries.xlsx
@@ -546,10 +546,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -561,9 +558,6 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -572,10 +566,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +576,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>20.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,10 +586,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>160</v>
-      </c>
-      <c r="C6">
-        <v>41.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -611,10 +596,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>131</v>
-      </c>
-      <c r="C7">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +727,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>385</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="3">
@@ -817,6 +799,12 @@
         <v>10</v>
       </c>
       <c r="C3">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>90.90000000000001</v>
       </c>
     </row>

--- a/01_analyses_states/Telangana/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Telangana/results/SoIB_summaries.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Range Status" sheetId="2" r:id="rId2"/>
     <sheet name="Priority Status" sheetId="3" r:id="rId3"/>
     <sheet name="Species qualification" sheetId="4" r:id="rId4"/>
-    <sheet name="High Priority break-up" sheetId="5" r:id="rId5"/>
+    <sheet name="Interannual update - High Pri" sheetId="5" r:id="rId5"/>
+    <sheet name="Major update - High Priority " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -395,14 +396,11 @@
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
       <c r="E2">
         <v>100</v>
       </c>
@@ -419,9 +417,6 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -438,9 +433,6 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -457,9 +449,6 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -476,9 +465,6 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -490,10 +476,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -503,10 +489,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C8">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +617,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +627,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +637,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>292</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -687,11 +673,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SoIB 2023 Assessment</t>
+          <t>SoIB Assessment</t>
         </is>
       </c>
       <c r="B2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -714,7 +700,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -777,6 +763,84 @@
         </is>
       </c>
       <c r="B2">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>73</v>
+      </c>
+      <c r="E2">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IUCN</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>29.1</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>22.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Break-up</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (no.)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (perc.)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (no.)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (perc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trend New</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">

--- a/01_analyses_states/Telangana/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Telangana/results/SoIB_summaries.xlsx
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -703,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -763,16 +763,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>70.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>77.7</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="3">
@@ -782,16 +782,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>22.3</v>
+        <v>21.3</v>
       </c>
     </row>
   </sheetData>
